--- a/Matlab/ISO2631.xlsx
+++ b/Matlab/ISO2631.xlsx
@@ -375,8 +375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Matlab/ISO2631.xlsx
+++ b/Matlab/ISO2631.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Frequency
 f
@@ -24,6 +24,31 @@
   </si>
   <si>
     <t>Wk
+factor
+x1000</t>
+  </si>
+  <si>
+    <t>Wd
+factor
+x1000</t>
+  </si>
+  <si>
+    <t>Wf
+factor
+x1000</t>
+  </si>
+  <si>
+    <t>Wc
+factor
+x1000</t>
+  </si>
+  <si>
+    <t>We
+factor
+x1000</t>
+  </si>
+  <si>
+    <t>Wj
 factor
 x1000</t>
   </si>
@@ -65,7 +90,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -77,6 +102,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -373,376 +407,1106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="G2" sqref="G2:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="4"/>
+    <col min="3" max="3" width="9.140625" style="6"/>
+    <col min="4" max="4" width="9.140625" style="7"/>
+    <col min="7" max="7" width="14.85546875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45">
+    <row r="1" spans="1:10" ht="45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="3">
         <v>0.02</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>24.2</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="7">
+        <v>62.4</v>
+      </c>
+      <c r="I2" s="7">
+        <v>62.5</v>
+      </c>
+      <c r="J2" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="H3" s="7">
+        <v>97.2</v>
+      </c>
+      <c r="I3" s="7">
+        <v>97.5</v>
+      </c>
+      <c r="J3" s="7">
+        <v>48.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="3">
         <v>3.15E-2</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>59.7</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="H4" s="7">
+        <v>158</v>
+      </c>
+      <c r="I4" s="7">
+        <v>159</v>
+      </c>
+      <c r="J4" s="7">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="3">
         <v>0.04</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>97.1</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H5" s="7">
+        <v>243</v>
+      </c>
+      <c r="I5" s="7">
+        <v>245</v>
+      </c>
+      <c r="J5" s="7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="3">
         <v>0.05</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>157</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H6" s="7">
+        <v>364</v>
+      </c>
+      <c r="I6" s="7">
+        <v>368</v>
+      </c>
+      <c r="J6" s="7">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="3">
         <v>6.3E-2</v>
       </c>
       <c r="B7" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>267</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.315</v>
+      </c>
+      <c r="H7" s="7">
+        <v>527</v>
+      </c>
+      <c r="I7" s="7">
+        <v>536</v>
+      </c>
+      <c r="J7" s="7">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="3">
         <v>0.08</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>461</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H8" s="7">
+        <v>708</v>
+      </c>
+      <c r="I8" s="7">
+        <v>723</v>
+      </c>
+      <c r="J8" s="7">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="3">
         <v>0.1</v>
       </c>
       <c r="B9" s="4">
         <v>31.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" s="6">
+        <v>62.4</v>
+      </c>
+      <c r="D9" s="7">
+        <v>695</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="7">
+        <v>843</v>
+      </c>
+      <c r="I9" s="7">
+        <v>862</v>
+      </c>
+      <c r="J9" s="7">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="3">
         <v>0.125</v>
       </c>
       <c r="B10" s="4">
         <v>48.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" s="6">
+        <v>97.3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>895</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.63</v>
+      </c>
+      <c r="H10" s="7">
+        <v>929</v>
+      </c>
+      <c r="I10" s="7">
+        <v>939</v>
+      </c>
+      <c r="J10" s="7">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="3">
         <v>0.16</v>
       </c>
       <c r="B11" s="4">
         <v>79</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" s="6">
+        <v>158</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1006</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H11" s="7">
+        <v>972</v>
+      </c>
+      <c r="I11" s="7">
+        <v>941</v>
+      </c>
+      <c r="J11" s="7">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="3">
         <v>0.2</v>
       </c>
       <c r="B12" s="4">
         <v>121</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" s="6">
+        <v>243</v>
+      </c>
+      <c r="D12" s="7">
+        <v>992</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7">
+        <v>991</v>
+      </c>
+      <c r="I12" s="7">
+        <v>880</v>
+      </c>
+      <c r="J12" s="7">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="3">
         <v>0.25</v>
       </c>
       <c r="B13" s="4">
         <v>182</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" s="6">
+        <v>365</v>
+      </c>
+      <c r="D13" s="7">
+        <v>854</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I13" s="7">
+        <v>772</v>
+      </c>
+      <c r="J13" s="7">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="3">
         <v>0.315</v>
       </c>
       <c r="B14" s="4">
         <v>263</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" s="6">
+        <v>530</v>
+      </c>
+      <c r="D14" s="7">
+        <v>619</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1007</v>
+      </c>
+      <c r="I14" s="7">
+        <v>632</v>
+      </c>
+      <c r="J14" s="7">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="3">
         <v>0.4</v>
       </c>
       <c r="B15" s="4">
         <v>352</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" s="6">
+        <v>713</v>
+      </c>
+      <c r="D15" s="7">
+        <v>384</v>
+      </c>
+      <c r="G15" s="7">
+        <v>2</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1012</v>
+      </c>
+      <c r="I15" s="7">
+        <v>512</v>
+      </c>
+      <c r="J15" s="7">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="3">
         <v>0.5</v>
       </c>
       <c r="B16" s="4">
         <v>418</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="6">
+        <v>853</v>
+      </c>
+      <c r="D16" s="7">
+        <v>224</v>
+      </c>
+      <c r="G16" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1017</v>
+      </c>
+      <c r="I16" s="7">
+        <v>409</v>
+      </c>
+      <c r="J16" s="7">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="3">
         <v>0.63</v>
       </c>
       <c r="B17" s="4">
         <v>459</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="6">
+        <v>944</v>
+      </c>
+      <c r="D17" s="7">
+        <v>116</v>
+      </c>
+      <c r="G17" s="7">
+        <v>3.15</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1022</v>
+      </c>
+      <c r="I17" s="7">
+        <v>323</v>
+      </c>
+      <c r="J17" s="7">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="3">
         <v>0.8</v>
       </c>
       <c r="B18" s="4">
         <v>477</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="6">
+        <v>992</v>
+      </c>
+      <c r="D18" s="7">
+        <v>53</v>
+      </c>
+      <c r="G18" s="7">
+        <v>4</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1024</v>
+      </c>
+      <c r="I18" s="7">
+        <v>253</v>
+      </c>
+      <c r="J18" s="7">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="3">
         <v>1</v>
       </c>
       <c r="B19" s="4">
         <v>482</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="6">
+        <v>1011</v>
+      </c>
+      <c r="D19" s="7">
+        <v>23.5</v>
+      </c>
+      <c r="G19" s="7">
+        <v>5</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1013</v>
+      </c>
+      <c r="I19" s="7">
+        <v>202</v>
+      </c>
+      <c r="J19" s="7">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="3">
         <v>1.25</v>
       </c>
       <c r="B20" s="4">
         <v>484</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" s="6">
+        <v>1008</v>
+      </c>
+      <c r="D20" s="7">
+        <v>9.98</v>
+      </c>
+      <c r="G20" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="H20" s="7">
+        <v>974</v>
+      </c>
+      <c r="I20" s="7">
+        <v>160</v>
+      </c>
+      <c r="J20" s="7">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="3">
         <v>1.6</v>
       </c>
       <c r="B21" s="4">
         <v>494</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" s="6">
+        <v>968</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3.77</v>
+      </c>
+      <c r="G21" s="7">
+        <v>8</v>
+      </c>
+      <c r="H21" s="7">
+        <v>891</v>
+      </c>
+      <c r="I21" s="7">
+        <v>125</v>
+      </c>
+      <c r="J21" s="7">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="3">
         <v>2</v>
       </c>
       <c r="B22" s="4">
         <v>531</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="6">
+        <v>890</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1.55</v>
+      </c>
+      <c r="G22" s="7">
+        <v>10</v>
+      </c>
+      <c r="H22" s="7">
+        <v>776</v>
+      </c>
+      <c r="I22" s="7">
+        <v>100</v>
+      </c>
+      <c r="J22" s="7">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="3">
         <v>2.5</v>
       </c>
       <c r="B23" s="4">
         <v>631</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" s="6">
+        <v>778</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="G23" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="H23" s="7">
+        <v>647</v>
+      </c>
+      <c r="I23" s="7">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="J23" s="7">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="3">
         <v>3.15</v>
       </c>
       <c r="B24" s="4">
         <v>804</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="6">
+        <v>642</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="G24" s="7">
+        <v>16</v>
+      </c>
+      <c r="H24" s="7">
+        <v>512</v>
+      </c>
+      <c r="I24" s="7">
+        <v>62.5</v>
+      </c>
+      <c r="J24" s="7">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="3">
         <v>4</v>
       </c>
       <c r="B25" s="4">
         <v>967</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" s="6">
+        <v>512</v>
+      </c>
+      <c r="D25" s="7">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="G25" s="7">
+        <v>20</v>
+      </c>
+      <c r="H25" s="7">
+        <v>409</v>
+      </c>
+      <c r="I25" s="7">
+        <v>50</v>
+      </c>
+      <c r="J25" s="7">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="3">
         <v>5</v>
       </c>
       <c r="B26" s="4">
         <v>1039</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" s="6">
+        <v>409</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="G26" s="7">
+        <v>25</v>
+      </c>
+      <c r="H26" s="7">
+        <v>325</v>
+      </c>
+      <c r="I26" s="7">
+        <v>39.9</v>
+      </c>
+      <c r="J26" s="7">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="3">
         <v>6.3</v>
       </c>
       <c r="B27" s="4">
         <v>1054</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" s="6">
+        <v>323</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="G27" s="7">
+        <v>31.5</v>
+      </c>
+      <c r="H27" s="7">
+        <v>256</v>
+      </c>
+      <c r="I27" s="7">
+        <v>31.6</v>
+      </c>
+      <c r="J27" s="7">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="3">
         <v>8</v>
       </c>
       <c r="B28" s="4">
         <v>1036</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" s="6">
+        <v>253</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7">
+        <v>40</v>
+      </c>
+      <c r="H28" s="7">
+        <v>199</v>
+      </c>
+      <c r="I28" s="7">
+        <v>24.7</v>
+      </c>
+      <c r="J28" s="7">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="3">
         <v>10</v>
       </c>
       <c r="B29" s="4">
         <v>988</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" s="6">
+        <v>212</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7">
+        <v>50</v>
+      </c>
+      <c r="H29" s="7">
+        <v>156</v>
+      </c>
+      <c r="I29" s="7">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="J29" s="7">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="3">
         <v>12.5</v>
       </c>
       <c r="B30" s="4">
         <v>902</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" s="6">
+        <v>161</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="G30" s="7">
+        <v>63</v>
+      </c>
+      <c r="H30" s="7">
+        <v>118</v>
+      </c>
+      <c r="I30" s="7">
+        <v>14.8</v>
+      </c>
+      <c r="J30" s="7">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="3">
         <v>16</v>
       </c>
       <c r="B31" s="4">
         <v>768</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" s="6">
+        <v>125</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="G31" s="7">
+        <v>80</v>
+      </c>
+      <c r="H31" s="7">
+        <v>84.4</v>
+      </c>
+      <c r="I31" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="J31" s="7">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="3">
         <v>20</v>
       </c>
       <c r="B32" s="4">
         <v>636</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" s="6">
+        <v>100</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="G32" s="7">
+        <v>100</v>
+      </c>
+      <c r="H32" s="7">
+        <v>56.7</v>
+      </c>
+      <c r="I32" s="7">
+        <v>7.07</v>
+      </c>
+      <c r="J32" s="7">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="3">
         <v>25</v>
       </c>
       <c r="B33" s="4">
         <v>513</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" s="6">
+        <v>80</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="G33" s="7">
+        <v>125</v>
+      </c>
+      <c r="H33" s="7">
+        <v>34.5</v>
+      </c>
+      <c r="I33" s="7">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="J33" s="7">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="3">
         <v>31.5</v>
       </c>
       <c r="B34" s="4">
         <v>405</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" s="6">
+        <v>63.2</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="G34" s="7">
+        <v>160</v>
+      </c>
+      <c r="H34" s="7">
+        <v>18.2</v>
+      </c>
+      <c r="I34" s="7">
+        <v>2.27</v>
+      </c>
+      <c r="J34" s="7">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="3">
         <v>40</v>
       </c>
       <c r="B35" s="4">
         <v>314</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" s="6">
+        <v>49.4</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0</v>
+      </c>
+      <c r="G35" s="7">
+        <v>200</v>
+      </c>
+      <c r="H35" s="7">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="I35" s="7">
+        <v>1.21</v>
+      </c>
+      <c r="J35" s="7">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="3">
         <v>50</v>
       </c>
       <c r="B36" s="4">
         <v>246</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" s="6">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0</v>
+      </c>
+      <c r="G36" s="7">
+        <v>250</v>
+      </c>
+      <c r="H36" s="7">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0.63</v>
+      </c>
+      <c r="J36" s="7">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="3">
         <v>63</v>
       </c>
       <c r="B37" s="4">
         <v>186</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" s="6">
+        <v>29.5</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0</v>
+      </c>
+      <c r="G37" s="7">
+        <v>315</v>
+      </c>
+      <c r="H37" s="7">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="J37" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="3">
         <v>80</v>
       </c>
       <c r="B38" s="4">
         <v>132</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" s="6">
+        <v>21.1</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0</v>
+      </c>
+      <c r="G38" s="7">
+        <v>400</v>
+      </c>
+      <c r="H38" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="J38" s="7">
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="3">
         <v>100</v>
       </c>
       <c r="B39" s="4">
         <v>88.7</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" s="6">
+        <v>14.1</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="3">
         <v>125</v>
       </c>
       <c r="B40" s="4">
         <v>54</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" s="6">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="3">
         <v>160</v>
       </c>
       <c r="B41" s="4">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="3">
         <v>200</v>
       </c>
       <c r="B42" s="4">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="3">
         <v>250</v>
       </c>
       <c r="B43" s="4">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" s="6">
+        <v>1.26</v>
+      </c>
+      <c r="D43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="3">
         <v>315</v>
       </c>
       <c r="B44" s="4">
         <v>3.98</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" s="6">
+        <v>0.64</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="3">
         <v>400</v>
       </c>
       <c r="B45" s="4">
         <v>1.95</v>
+      </c>
+      <c r="C45" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="D45" s="7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
